--- a/Document/学习报表2015.xlsx
+++ b/Document/学习报表2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="0" windowWidth="15480" windowHeight="11640" tabRatio="788"/>
+    <workbookView xWindow="2955" yWindow="0" windowWidth="15480" windowHeight="11640" tabRatio="788"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="14" r:id="rId1"/>
@@ -34,11 +34,11 @@
     <definedName name="MaySun1">DATE(CalendarYear,5,1)-WEEKDAY(DATE(CalendarYear,5,1))+1</definedName>
     <definedName name="NovSun1">DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1))+1</definedName>
     <definedName name="OctSun1">DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1))+1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Jan!$A$1:$H$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Jan!$A$1:$H$16</definedName>
     <definedName name="SepSun1">DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1))+1</definedName>
     <definedName name="Year">YearLookup[]</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -53,48 +53,6 @@
     <author xml:space="preserve">   </author>
   </authors>
   <commentList>
-    <comment ref="J4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Hei"/>
-            <charset val="134"/>
-          </rPr>
-          <t>当您单击显示如上年份的单元格时，可以看到可供选择的年份弹出列表。当您做出选择时，此工作簿中所有月份的日历表将随之自动更新。
-要更改该列表中的可用年份，请见“查阅列表”工作表。
-注意：在显示了日期的所有单元格中，以及虽然显示为空但其所在行包含了日期值的日历单元格中，都存在公式以便日历能够自动更新。如果您手动改变这些单元格中的文本，日历将不再能够自动更新。
-但是，您可以在每个日期单元格下面高一些的单元格内键入文字，例如，此日历的第一个可用的较大单元格中写着“示例文字”，您可以在此处键入文字。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Hei"/>
-            <charset val="134"/>
-          </rPr>
-          <t>轻松将您自己的形象应用于此日历。这个模板使用主题格式，您只需单击一下便可将字体、颜色和图形的格式效果应用于整个工作簿。
-在“开始”选项卡的“主题”组中查找主题。可以从主题库中现有的几十个内置主题中选择，也可找到选项仅改变当前主题的字体或颜色。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author xml:space="preserve">   </author>
-  </authors>
-  <commentList>
     <comment ref="C4" authorId="0">
       <text>
         <r>
@@ -103,7 +61,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Hei"/>
-            <charset val="134"/>
+            <family val="1"/>
           </rPr>
           <t>此列表填充的选项出现于“一月”工作表的年份弹出列表中。要添加更多年份，请在最后一个现有条目正下方的单元格中开始键入，列表将自动展开。</t>
         </r>
@@ -114,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="13">
   <si>
     <t>选择
 年份：</t>
@@ -152,15 +110,19 @@
   <si>
     <t>年份</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.选择，变异，交叉顺序关系；  2.三个操作之间的矛盾，会相互影响    </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <name val="Century Gothic"/>
@@ -217,57 +179,71 @@
     <font>
       <sz val="11"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="Hei"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -614,7 +590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -729,11 +705,14 @@
     <xf numFmtId="176" fontId="11" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - 强调文字颜色 1" xfId="3" builtinId="31" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 1" xfId="2" builtinId="29" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 5" xfId="4" builtinId="45" customBuiltin="1"/>
   </cellStyles>
@@ -873,7 +852,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F3F3F3"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="564B3C"/>
@@ -1124,24 +1103,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="9"/>
-    <col min="10" max="10" width="15.28515625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="9"/>
+    <col min="10" max="10" width="15.25" style="9" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -1185,7 +1164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14" customHeight="1">
+    <row r="3" spans="2:11" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(JanSun1)=CalendarYear,MONTH(JanSun1)=1),JanSun1, "")</f>
         <v/>
@@ -1215,87 +1194,67 @@
         <v>42007</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="58" customHeight="1">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:11" ht="75.75" customHeight="1">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="57.95" customHeight="1">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="2:11" ht="14" customHeight="1">
-      <c r="B5" s="17">
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="2:11" ht="14.1" customHeight="1">
+      <c r="B6" s="17">
         <f>IF(AND(YEAR(JanSun1+7)=CalendarYear,MONTH(JanSun1+7)=1),JanSun1+7, "")</f>
         <v>42008</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C6" s="11">
         <f>IF(AND(YEAR(JanSun1+8)=CalendarYear,MONTH(JanSun1+8)=1),JanSun1+8, "")</f>
         <v>42009</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D6" s="11">
         <f>IF(AND(YEAR(JanSun1+9)=CalendarYear,MONTH(JanSun1+9)=1),JanSun1+9, "")</f>
         <v>42010</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E6" s="11">
         <f>IF(AND(YEAR(JanSun1+10)=CalendarYear,MONTH(JanSun1+10)=1),JanSun1+10, "")</f>
         <v>42011</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F6" s="11">
         <f>IF(AND(YEAR(JanSun1+11)=CalendarYear,MONTH(JanSun1+11)=1),JanSun1+11, "")</f>
         <v>42012</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G6" s="11">
         <f>IF(AND(YEAR(JanSun1+12)=CalendarYear,MONTH(JanSun1+12)=1),JanSun1+12,"")</f>
         <v>42013</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H6" s="12">
         <f>IF(AND(YEAR(JanSun1+13)=CalendarYear,MONTH(JanSun1+13)=1),JanSun1+13, "")</f>
         <v>42014</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="58" customHeight="1">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="2:11" ht="14" customHeight="1">
-      <c r="B7" s="17">
-        <f>IF(AND(YEAR(JanSun1+14)=CalendarYear,MONTH(JanSun1+14)=1),JanSun1+14, "")</f>
-        <v>42015</v>
-      </c>
-      <c r="C7" s="11">
-        <f>IF(AND(YEAR(JanSun1+15)=CalendarYear,MONTH(JanSun1+15)=1),JanSun1+15, "")</f>
-        <v>42016</v>
-      </c>
-      <c r="D7" s="11">
-        <f>IF(AND(YEAR(JanSun1+16)=CalendarYear,MONTH(JanSun1+16)=1),JanSun1+16, "")</f>
-        <v>42017</v>
-      </c>
-      <c r="E7" s="11">
-        <f>IF(AND(YEAR(JanSun1+17)=CalendarYear,MONTH(JanSun1+17)=1),JanSun1+17, "")</f>
-        <v>42018</v>
-      </c>
-      <c r="F7" s="11">
-        <f>IF(AND(YEAR(JanSun1+18)=CalendarYear,MONTH(JanSun1+18)=1),JanSun1+18, "")</f>
-        <v>42019</v>
-      </c>
-      <c r="G7" s="11">
-        <f>IF(AND(YEAR(JanSun1+19)=CalendarYear,MONTH(JanSun1+19)=1),JanSun1+19, "")</f>
-        <v>42020</v>
-      </c>
-      <c r="H7" s="12">
-        <f>IF(AND(YEAR(JanSun1+20)=CalendarYear,MONTH(JanSun1+20)=1),JanSun1+20, "")</f>
-        <v>42021</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="58" customHeight="1">
+    <row r="7" spans="2:11" ht="57.75" customHeight="1">
+      <c r="B7" s="17"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="2:11" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -1304,37 +1263,37 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:11" ht="14" customHeight="1">
-      <c r="B9" s="18">
-        <f>IF(AND(YEAR(JanSun1+21)=CalendarYear,MONTH(JanSun1+21)=1),JanSun1+21, "")</f>
-        <v>42022</v>
-      </c>
-      <c r="C9" s="19">
-        <f>IF(AND(YEAR(JanSun1+22)=CalendarYear,MONTH(JanSun1+22)=1),JanSun1+22, "")</f>
-        <v>42023</v>
-      </c>
-      <c r="D9" s="19">
-        <f>IF(AND(YEAR(JanSun1+23)=CalendarYear,MONTH(JanSun1+23)=1),JanSun1+23, "")</f>
-        <v>42024</v>
-      </c>
-      <c r="E9" s="19">
-        <f>IF(AND(YEAR(JanSun1+24)=CalendarYear,MONTH(JanSun1+24)=1),JanSun1+24, "")</f>
-        <v>42025</v>
-      </c>
-      <c r="F9" s="19">
-        <f>IF(AND(YEAR(JanSun1+25)=CalendarYear,MONTH(JanSun1+25)=1),JanSun1+25, "")</f>
-        <v>42026</v>
-      </c>
-      <c r="G9" s="19">
-        <f>IF(AND(YEAR(JanSun1+26)=CalendarYear,MONTH(JanSun1+26)=1),JanSun1+26, "")</f>
-        <v>42027</v>
-      </c>
-      <c r="H9" s="20">
-        <f>IF(AND(YEAR(JanSun1+27)=CalendarYear,MONTH(JanSun1+27)=1),JanSun1+27, "")</f>
-        <v>42028</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="58" customHeight="1">
+    <row r="9" spans="2:11" ht="14.1" customHeight="1">
+      <c r="B9" s="17">
+        <f>IF(AND(YEAR(JanSun1+14)=CalendarYear,MONTH(JanSun1+14)=1),JanSun1+14, "")</f>
+        <v>42015</v>
+      </c>
+      <c r="C9" s="11">
+        <f>IF(AND(YEAR(JanSun1+15)=CalendarYear,MONTH(JanSun1+15)=1),JanSun1+15, "")</f>
+        <v>42016</v>
+      </c>
+      <c r="D9" s="11">
+        <f>IF(AND(YEAR(JanSun1+16)=CalendarYear,MONTH(JanSun1+16)=1),JanSun1+16, "")</f>
+        <v>42017</v>
+      </c>
+      <c r="E9" s="11">
+        <f>IF(AND(YEAR(JanSun1+17)=CalendarYear,MONTH(JanSun1+17)=1),JanSun1+17, "")</f>
+        <v>42018</v>
+      </c>
+      <c r="F9" s="11">
+        <f>IF(AND(YEAR(JanSun1+18)=CalendarYear,MONTH(JanSun1+18)=1),JanSun1+18, "")</f>
+        <v>42019</v>
+      </c>
+      <c r="G9" s="11">
+        <f>IF(AND(YEAR(JanSun1+19)=CalendarYear,MONTH(JanSun1+19)=1),JanSun1+19, "")</f>
+        <v>42020</v>
+      </c>
+      <c r="H9" s="12">
+        <f>IF(AND(YEAR(JanSun1+20)=CalendarYear,MONTH(JanSun1+20)=1),JanSun1+20, "")</f>
+        <v>42021</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -1343,76 +1302,115 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:11" ht="14" customHeight="1">
+    <row r="11" spans="2:11" ht="14.1" customHeight="1">
       <c r="B11" s="18">
-        <f>IF(AND(YEAR(JanSun1+28)=CalendarYear,MONTH(JanSun1+28)=1),JanSun1+28, "")</f>
-        <v>42029</v>
+        <f>IF(AND(YEAR(JanSun1+21)=CalendarYear,MONTH(JanSun1+21)=1),JanSun1+21, "")</f>
+        <v>42022</v>
       </c>
       <c r="C11" s="19">
-        <f>IF(AND(YEAR(JanSun1+29)=CalendarYear,MONTH(JanSun1+29)=1),JanSun1+29, "")</f>
-        <v>42030</v>
+        <f>IF(AND(YEAR(JanSun1+22)=CalendarYear,MONTH(JanSun1+22)=1),JanSun1+22, "")</f>
+        <v>42023</v>
       </c>
       <c r="D11" s="19">
-        <f>IF(AND(YEAR(JanSun1+30)=CalendarYear,MONTH(JanSun1+30)=1),JanSun1+30, "")</f>
-        <v>42031</v>
+        <f>IF(AND(YEAR(JanSun1+23)=CalendarYear,MONTH(JanSun1+23)=1),JanSun1+23, "")</f>
+        <v>42024</v>
       </c>
       <c r="E11" s="19">
-        <f>IF(AND(YEAR(JanSun1+31)=CalendarYear,MONTH(JanSun1+31)=1),JanSun1+31, "")</f>
-        <v>42032</v>
+        <f>IF(AND(YEAR(JanSun1+24)=CalendarYear,MONTH(JanSun1+24)=1),JanSun1+24, "")</f>
+        <v>42025</v>
       </c>
       <c r="F11" s="19">
-        <f>IF(AND(YEAR(JanSun1+32)=CalendarYear,MONTH(JanSun1+32)=1),JanSun1+32, "")</f>
-        <v>42033</v>
+        <f>IF(AND(YEAR(JanSun1+25)=CalendarYear,MONTH(JanSun1+25)=1),JanSun1+25, "")</f>
+        <v>42026</v>
       </c>
       <c r="G11" s="19">
-        <f>IF(AND(YEAR(JanSun1+33)=CalendarYear,MONTH(JanSun1+33)=1),JanSun1+33, "")</f>
-        <v>42034</v>
+        <f>IF(AND(YEAR(JanSun1+26)=CalendarYear,MONTH(JanSun1+26)=1),JanSun1+26, "")</f>
+        <v>42027</v>
       </c>
       <c r="H11" s="20">
-        <f>IF(AND(YEAR(JanSun1+34)=CalendarYear,MONTH(JanSun1+34)=1),JanSun1+34, "")</f>
-        <v>42035</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="58" customHeight="1">
+        <f>IF(AND(YEAR(JanSun1+27)=CalendarYear,MONTH(JanSun1+27)=1),JanSun1+27, "")</f>
+        <v>42028</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:11" ht="14" customHeight="1">
-      <c r="B13" s="18" t="str">
+    <row r="13" spans="2:11" ht="14.1" customHeight="1">
+      <c r="B13" s="18">
+        <f>IF(AND(YEAR(JanSun1+28)=CalendarYear,MONTH(JanSun1+28)=1),JanSun1+28, "")</f>
+        <v>42029</v>
+      </c>
+      <c r="C13" s="19">
+        <f>IF(AND(YEAR(JanSun1+29)=CalendarYear,MONTH(JanSun1+29)=1),JanSun1+29, "")</f>
+        <v>42030</v>
+      </c>
+      <c r="D13" s="19">
+        <f>IF(AND(YEAR(JanSun1+30)=CalendarYear,MONTH(JanSun1+30)=1),JanSun1+30, "")</f>
+        <v>42031</v>
+      </c>
+      <c r="E13" s="19">
+        <f>IF(AND(YEAR(JanSun1+31)=CalendarYear,MONTH(JanSun1+31)=1),JanSun1+31, "")</f>
+        <v>42032</v>
+      </c>
+      <c r="F13" s="19">
+        <f>IF(AND(YEAR(JanSun1+32)=CalendarYear,MONTH(JanSun1+32)=1),JanSun1+32, "")</f>
+        <v>42033</v>
+      </c>
+      <c r="G13" s="19">
+        <f>IF(AND(YEAR(JanSun1+33)=CalendarYear,MONTH(JanSun1+33)=1),JanSun1+33, "")</f>
+        <v>42034</v>
+      </c>
+      <c r="H13" s="20">
+        <f>IF(AND(YEAR(JanSun1+34)=CalendarYear,MONTH(JanSun1+34)=1),JanSun1+34, "")</f>
+        <v>42035</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="57.95" customHeight="1">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="2:11" ht="14.1" customHeight="1">
+      <c r="B15" s="18" t="str">
         <f>IF(AND(YEAR(JanSun1+35)=CalendarYear,MONTH(JanSun1+35)=1),JanSun1+35, "")</f>
         <v/>
       </c>
-      <c r="C13" s="19" t="str">
+      <c r="C15" s="19" t="str">
         <f>IF(AND(YEAR(JanSun1+36)=CalendarYear,MONTH(JanSun1+36)=1),JanSun1+36, "")</f>
         <v/>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D15" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="2:11" ht="58" customHeight="1" thickBot="1">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="2:11" ht="57.95" customHeight="1" thickBot="1">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -1422,11 +1420,10 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup scale="81" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="90" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <customProperties>
-    <customPr name="SheetChanged" r:id="rId1"/>
+    <customPr name="SheetChanged" r:id="rId2"/>
   </customProperties>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1436,7 +1433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1446,11 +1443,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -1488,7 +1485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(OctSun1)=CalendarYear,MONTH(OctSun1)=10),OctSun1, "")</f>
         <v/>
@@ -1518,7 +1515,7 @@
         <v>42280</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -1527,7 +1524,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(OctSun1+7)=CalendarYear,MONTH(OctSun1+7)=10),OctSun1+7, "")</f>
         <v>42281</v>
@@ -1557,7 +1554,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -1566,7 +1563,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(OctSun1+14)=CalendarYear,MONTH(OctSun1+14)=10),OctSun1+14, "")</f>
         <v>42288</v>
@@ -1596,7 +1593,7 @@
         <v>42294</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -1605,7 +1602,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(OctSun1+21)=CalendarYear,MONTH(OctSun1+21)=10),OctSun1+21, "")</f>
         <v>42295</v>
@@ -1635,7 +1632,7 @@
         <v>42301</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -1644,7 +1641,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(OctSun1+28)=CalendarYear,MONTH(OctSun1+28)=10),OctSun1+28, "")</f>
         <v>42302</v>
@@ -1674,7 +1671,7 @@
         <v>42308</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -1683,7 +1680,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(OctSun1+35)=CalendarYear,MONTH(OctSun1+35)=10),OctSun1+35, "")</f>
         <v/>
@@ -1700,7 +1697,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="33"/>
@@ -1728,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1738,11 +1735,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -1780,7 +1777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10">
         <f>IF(AND(YEAR(NovSun1)=CalendarYear,MONTH(NovSun1)=11),NovSun1, "")</f>
         <v>42309</v>
@@ -1810,7 +1807,7 @@
         <v>42315</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -1819,7 +1816,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(NovSun1+7)=CalendarYear,MONTH(NovSun1+7)=11),NovSun1+7, "")</f>
         <v>42316</v>
@@ -1849,7 +1846,7 @@
         <v>42322</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -1858,7 +1855,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(NovSun1+14)=CalendarYear,MONTH(NovSun1+14)=11),NovSun1+14, "")</f>
         <v>42323</v>
@@ -1888,7 +1885,7 @@
         <v>42329</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -1897,7 +1894,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(NovSun1+21)=CalendarYear,MONTH(NovSun1+21)=11),NovSun1+21, "")</f>
         <v>42330</v>
@@ -1927,7 +1924,7 @@
         <v>42336</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -1936,7 +1933,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(NovSun1+28)=CalendarYear,MONTH(NovSun1+28)=11),NovSun1+28, "")</f>
         <v>42337</v>
@@ -1966,7 +1963,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -1975,7 +1972,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(NovSun1+35)=CalendarYear,MONTH(NovSun1+35)=11),NovSun1+35, "")</f>
         <v/>
@@ -1989,7 +1986,7 @@
       <c r="G13" s="40"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
@@ -2017,7 +2014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2027,11 +2024,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -2069,7 +2066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(DecSun1)=CalendarYear,MONTH(DecSun1)=12),DecSun1, "")</f>
         <v/>
@@ -2099,7 +2096,7 @@
         <v>42343</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -2108,7 +2105,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(DecSun1+7)=CalendarYear,MONTH(DecSun1+7)=12),DecSun1+7, "")</f>
         <v>42344</v>
@@ -2138,7 +2135,7 @@
         <v>42350</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -2147,7 +2144,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(DecSun1+14)=CalendarYear,MONTH(DecSun1+14)=12),DecSun1+14, "")</f>
         <v>42351</v>
@@ -2177,7 +2174,7 @@
         <v>42357</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -2186,7 +2183,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(DecSun1+21)=CalendarYear,MONTH(DecSun1+21)=12),DecSun1+21, "")</f>
         <v>42358</v>
@@ -2216,7 +2213,7 @@
         <v>42364</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2225,7 +2222,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(DecSun1+28)=CalendarYear,MONTH(DecSun1+28)=12),DecSun1+28, "")</f>
         <v>42365</v>
@@ -2255,7 +2252,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -2264,7 +2261,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(DecSun1+35)=CalendarYear,MONTH(DecSun1+35)=12),DecSun1+35, "")</f>
         <v/>
@@ -2281,7 +2278,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="33"/>
@@ -2309,92 +2306,92 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="10.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="14">
+    <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="9">
         <v>2010</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="14">
+    <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="9">
         <v>2011</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="14">
+    <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="9">
         <v>2012</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="14">
+    <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="9">
         <v>2013</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="14">
+    <row r="6" spans="1:3" ht="16.5">
       <c r="A6" s="9">
         <v>2014</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="14">
+    <row r="7" spans="1:3" ht="16.5">
       <c r="A7" s="9">
         <v>2015</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="14">
+    <row r="8" spans="1:3" ht="16.5">
       <c r="A8" s="31">
         <v>2016</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="14">
+    <row r="9" spans="1:3" ht="16.5">
       <c r="A9" s="31">
         <v>2017</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="14">
+    <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="31"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="14">
+    <row r="11" spans="1:3" ht="16.5">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="14">
+    <row r="12" spans="1:3" ht="16.5">
       <c r="B12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2405,7 +2402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2415,11 +2412,11 @@
       <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -2457,7 +2454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10">
         <f>IF(AND(YEAR(FebSun1)=CalendarYear,MONTH(FebSun1)=2),FebSun1, "")</f>
         <v>42036</v>
@@ -2487,7 +2484,7 @@
         <v>42042</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -2496,7 +2493,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(FebSun1+7)=CalendarYear,MONTH(FebSun1+7)=2),FebSun1+7, "")</f>
         <v>42043</v>
@@ -2526,7 +2523,7 @@
         <v>42049</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -2535,7 +2532,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(FebSun1+14)=CalendarYear,MONTH(FebSun1+14)=2),FebSun1+14, "")</f>
         <v>42050</v>
@@ -2565,7 +2562,7 @@
         <v>42056</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -2574,7 +2571,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(FebSun1+21)=CalendarYear,MONTH(FebSun1+21)=2),FebSun1+21, "")</f>
         <v>42057</v>
@@ -2604,7 +2601,7 @@
         <v>42063</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2613,7 +2610,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18" t="str">
         <f>IF(AND(YEAR(FebSun1+28)=CalendarYear,MONTH(FebSun1+28)=2),FebSun1+28, "")</f>
         <v/>
@@ -2643,7 +2640,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -2652,7 +2649,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="39" t="s">
         <v>9</v>
       </c>
@@ -2663,7 +2660,7 @@
       <c r="G13" s="40"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="38"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -2691,7 +2688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2701,11 +2698,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -2743,7 +2740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10">
         <f>IF(AND(YEAR(MarSun1)=CalendarYear,MONTH(MarSun1)=3),MarSun1, "")</f>
         <v>42064</v>
@@ -2773,7 +2770,7 @@
         <v>42070</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -2782,7 +2779,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(MarSun1+7)=CalendarYear,MONTH(MarSun1+7)=3),MarSun1+7, "")</f>
         <v>42071</v>
@@ -2812,7 +2809,7 @@
         <v>42077</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -2821,7 +2818,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(MarSun1+14)=CalendarYear,MONTH(MarSun1+14)=3),MarSun1+14, "")</f>
         <v>42078</v>
@@ -2851,7 +2848,7 @@
         <v>42084</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -2860,7 +2857,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(MarSun1+21)=CalendarYear,MONTH(MarSun1+21)=3),MarSun1+21, "")</f>
         <v>42085</v>
@@ -2890,7 +2887,7 @@
         <v>42091</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2899,7 +2896,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(MarSun1+28)=CalendarYear,MONTH(MarSun1+28)=3),MarSun1+28, "")</f>
         <v>42092</v>
@@ -2929,7 +2926,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -2938,7 +2935,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="18" t="str">
         <f>IF(AND(YEAR(MarSun1+35)=CalendarYear,MONTH(MarSun1+35)=3),MarSun1+35, "")</f>
         <v/>
@@ -2955,7 +2952,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
       <c r="D14" s="33"/>
@@ -2983,7 +2980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2993,11 +2990,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -3035,7 +3032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(AprSun1)=CalendarYear,MONTH(AprSun1)=4),AprSun1, "")</f>
         <v/>
@@ -3065,7 +3062,7 @@
         <v>42098</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3074,7 +3071,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(AprSun1+7)=CalendarYear,MONTH(AprSun1+7)=4),AprSun1+7, "")</f>
         <v>42099</v>
@@ -3104,7 +3101,7 @@
         <v>42105</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3113,7 +3110,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(AprSun1+14)=CalendarYear,MONTH(AprSun1+14)=4),AprSun1+14, "")</f>
         <v>42106</v>
@@ -3143,7 +3140,7 @@
         <v>42112</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3152,7 +3149,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(AprSun1+21)=CalendarYear,MONTH(AprSun1+21)=4),AprSun1+21, "")</f>
         <v>42113</v>
@@ -3182,7 +3179,7 @@
         <v>42119</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -3191,7 +3188,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(AprSun1+28)=CalendarYear,MONTH(AprSun1+28)=4),AprSun1+28, "")</f>
         <v>42120</v>
@@ -3221,7 +3218,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3230,7 +3227,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="18" t="str">
         <f>IF(AND(YEAR(AprSun1+35)=CalendarYear,MONTH(AprSun1+35)=4),AprSun1+35, "")</f>
         <v/>
@@ -3244,7 +3241,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
@@ -3272,7 +3269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3282,11 +3279,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -3324,7 +3321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(MaySun1)=CalendarYear,MONTH(MaySun1)=5),MaySun1, "")</f>
         <v/>
@@ -3354,7 +3351,7 @@
         <v>42126</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3363,7 +3360,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(MaySun1+7)=CalendarYear,MONTH(MaySun1+7)=5),MaySun1+7, "")</f>
         <v>42127</v>
@@ -3393,7 +3390,7 @@
         <v>42133</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3402,7 +3399,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(MaySun1+14)=CalendarYear,MONTH(MaySun1+14)=5),MaySun1+14, "")</f>
         <v>42134</v>
@@ -3432,7 +3429,7 @@
         <v>42140</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3441,7 +3438,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(MaySun1+21)=CalendarYear,MONTH(MaySun1+21)=5),MaySun1+21, "")</f>
         <v>42141</v>
@@ -3471,7 +3468,7 @@
         <v>42147</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="28"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -3480,7 +3477,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(MaySun1+28)=CalendarYear,MONTH(MaySun1+28)=5),MaySun1+28, "")</f>
         <v>42148</v>
@@ -3510,7 +3507,7 @@
         <v>42154</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3519,7 +3516,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29">
         <f>IF(AND(YEAR(MaySun1+35)=CalendarYear,MONTH(MaySun1+35)=5),MaySun1+35, "")</f>
         <v>42155</v>
@@ -3536,7 +3533,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="33"/>
@@ -3564,7 +3561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3574,11 +3571,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -3616,7 +3613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(JunSun1)=CalendarYear,MONTH(JunSun1)=6),JunSun1, "")</f>
         <v/>
@@ -3646,7 +3643,7 @@
         <v>42161</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3655,7 +3652,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(JunSun1+7)=CalendarYear,MONTH(JunSun1+7)=6),JunSun1+7, "")</f>
         <v>42162</v>
@@ -3685,7 +3682,7 @@
         <v>42168</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3694,7 +3691,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(JunSun1+14)=CalendarYear,MONTH(JunSun1+14)=6),JunSun1+14, "")</f>
         <v>42169</v>
@@ -3724,7 +3721,7 @@
         <v>42175</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3733,7 +3730,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(JunSun1+21)=CalendarYear,MONTH(JunSun1+21)=6),JunSun1+21, "")</f>
         <v>42176</v>
@@ -3763,7 +3760,7 @@
         <v>42182</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -3772,7 +3769,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(JunSun1+28)=CalendarYear,MONTH(JunSun1+28)=6),JunSun1+28, "")</f>
         <v>42183</v>
@@ -3802,7 +3799,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3811,7 +3808,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="18" t="str">
         <f>IF(AND(YEAR(JunSun1+35)=CalendarYear,MONTH(JunSun1+35)=6),JunSun1+35, "")</f>
         <v/>
@@ -3825,7 +3822,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
@@ -3853,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3863,11 +3860,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -3905,7 +3902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(JulSun1)=CalendarYear,MONTH(JulSun1)=7),JulSun1, "")</f>
         <v/>
@@ -3935,7 +3932,7 @@
         <v>42189</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3944,7 +3941,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(JulSun1+7)=CalendarYear,MONTH(JulSun1+7)=7),JulSun1+7, "")</f>
         <v>42190</v>
@@ -3974,7 +3971,7 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3983,7 +3980,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(JulSun1+14)=CalendarYear,MONTH(JulSun1+14)=7),JulSun1+14, "")</f>
         <v>42197</v>
@@ -4013,7 +4010,7 @@
         <v>42203</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -4022,7 +4019,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(JulSun1+21)=CalendarYear,MONTH(JulSun1+21)=7),JulSun1+21, "")</f>
         <v>42204</v>
@@ -4052,7 +4049,7 @@
         <v>42210</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -4061,7 +4058,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(JulSun1+28)=CalendarYear,MONTH(JulSun1+28)=7),JulSun1+28, "")</f>
         <v>42211</v>
@@ -4091,7 +4088,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -4100,7 +4097,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(JulSun1+35)=CalendarYear,MONTH(JulSun1+35)=7),JulSun1+35, "")</f>
         <v/>
@@ -4117,7 +4114,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="33"/>
@@ -4145,7 +4142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4155,11 +4152,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -4197,7 +4194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(AugSun1)=CalendarYear,MONTH(AugSun1)=8),AugSun1, "")</f>
         <v/>
@@ -4227,7 +4224,7 @@
         <v>42217</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -4236,7 +4233,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(AugSun1+7)=CalendarYear,MONTH(AugSun1+7)=8),AugSun1+7, "")</f>
         <v>42218</v>
@@ -4266,7 +4263,7 @@
         <v>42224</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -4275,7 +4272,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(AugSun1+14)=CalendarYear,MONTH(AugSun1+14)=8),AugSun1+14, "")</f>
         <v>42225</v>
@@ -4305,7 +4302,7 @@
         <v>42231</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -4314,7 +4311,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(AugSun1+21)=CalendarYear,MONTH(AugSun1+21)=8),AugSun1+21, "")</f>
         <v>42232</v>
@@ -4344,7 +4341,7 @@
         <v>42238</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -4353,7 +4350,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(AugSun1+28)=CalendarYear,MONTH(AugSun1+28)=8),AugSun1+28, "")</f>
         <v>42239</v>
@@ -4383,7 +4380,7 @@
         <v>42245</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -4392,7 +4389,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29">
         <f>IF(AND(YEAR(AugSun1+35)=CalendarYear,MONTH(AugSun1+35)=8),AugSun1+35, "")</f>
         <v>42246</v>
@@ -4409,7 +4406,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="33"/>
@@ -4437,7 +4434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4447,11 +4444,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -4489,7 +4486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(SepSun1)=CalendarYear,MONTH(SepSun1)=9),SepSun1, "")</f>
         <v/>
@@ -4519,7 +4516,7 @@
         <v>42252</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -4528,7 +4525,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(SepSun1+7)=CalendarYear,MONTH(SepSun1+7)=9),SepSun1+7, "")</f>
         <v>42253</v>
@@ -4558,7 +4555,7 @@
         <v>42259</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -4567,7 +4564,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(SepSun1+14)=CalendarYear,MONTH(SepSun1+14)=9),SepSun1+14, "")</f>
         <v>42260</v>
@@ -4597,7 +4594,7 @@
         <v>42266</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -4606,7 +4603,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(SepSun1+21)=CalendarYear,MONTH(SepSun1+21)=9),SepSun1+21, "")</f>
         <v>42267</v>
@@ -4636,7 +4633,7 @@
         <v>42273</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -4645,7 +4642,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(SepSun1+28)=CalendarYear,MONTH(SepSun1+28)=9),SepSun1+28, "")</f>
         <v>42274</v>
@@ -4675,7 +4672,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -4684,7 +4681,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(SepSun1+35)=CalendarYear,MONTH(SepSun1+35)=9),SepSun1+35, "")</f>
         <v/>
@@ -4698,7 +4695,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
